--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T05:15:24+00:00</t>
+    <t>2022-07-20T08:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:05:17+00:00</t>
+    <t>2022-07-20T08:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T08:58:56+00:00</t>
+    <t>2022-07-20T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T10:32:08+00:00</t>
+    <t>2022-07-22T13:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -540,7 +540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration_Injection|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDispenseBase|MedicationStatement|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -762,7 +762,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -862,7 +862,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1435,7 +1435,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|QuestionnaireResponse|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T13:13:55+00:00</t>
+    <t>2022-07-22T14:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-各リソースExample作成/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T14:30:02+00:00</t>
+    <t>2022-07-22T14:58:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
